--- a/data/pca/factorExposure/factorExposure_2016-05-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.009987217036050674</v>
+        <v>0.01285084351255698</v>
       </c>
       <c r="C2">
-        <v>-0.05570036822276978</v>
+        <v>0.03948739797558348</v>
       </c>
       <c r="D2">
-        <v>-0.04031338687081545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05439061238513627</v>
+      </c>
+      <c r="E2">
+        <v>-0.09026659516081048</v>
+      </c>
+      <c r="F2">
+        <v>0.08415227646396625</v>
+      </c>
+      <c r="G2">
+        <v>0.03205615500127953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0405570472252242</v>
+        <v>0.02557158829739281</v>
       </c>
       <c r="C3">
-        <v>-0.1196903963767357</v>
+        <v>0.06705972042608177</v>
       </c>
       <c r="D3">
-        <v>-0.09542360154825764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07598737993862123</v>
+      </c>
+      <c r="E3">
+        <v>-0.06979311994555189</v>
+      </c>
+      <c r="F3">
+        <v>-0.0286287998128155</v>
+      </c>
+      <c r="G3">
+        <v>0.05340428172084299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06019472371139771</v>
+        <v>0.0584002446782657</v>
       </c>
       <c r="C4">
-        <v>-0.06135767725599548</v>
+        <v>0.06389279744018669</v>
       </c>
       <c r="D4">
-        <v>-0.02372126921770624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.04745766867709439</v>
+      </c>
+      <c r="E4">
+        <v>-0.08743533768468517</v>
+      </c>
+      <c r="F4">
+        <v>0.04550223576392926</v>
+      </c>
+      <c r="G4">
+        <v>0.09593670564795385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0394732422701027</v>
+        <v>0.03507334898249841</v>
       </c>
       <c r="C6">
-        <v>-0.0373220900599738</v>
+        <v>0.02804899547409169</v>
       </c>
       <c r="D6">
-        <v>-0.02376263759488628</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05458859063507436</v>
+      </c>
+      <c r="E6">
+        <v>-0.08974472216143591</v>
+      </c>
+      <c r="F6">
+        <v>0.03275052264476376</v>
+      </c>
+      <c r="G6">
+        <v>0.07168936424157094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02355365528585192</v>
+        <v>0.01903225324415832</v>
       </c>
       <c r="C7">
-        <v>-0.04335242778042599</v>
+        <v>0.03738045558329377</v>
       </c>
       <c r="D7">
-        <v>0.008517624050554493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03289717795716051</v>
+      </c>
+      <c r="E7">
+        <v>-0.06589551038879952</v>
+      </c>
+      <c r="F7">
+        <v>0.07386770925397459</v>
+      </c>
+      <c r="G7">
+        <v>0.09373541805164015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005440426971285023</v>
+        <v>0.003540377531948286</v>
       </c>
       <c r="C8">
-        <v>-0.03703111558097556</v>
+        <v>0.03254001628150023</v>
       </c>
       <c r="D8">
-        <v>-0.0260152501822733</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02898704892287442</v>
+      </c>
+      <c r="E8">
+        <v>-0.0593175155884685</v>
+      </c>
+      <c r="F8">
+        <v>0.02195124742152101</v>
+      </c>
+      <c r="G8">
+        <v>0.04113820696149172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03454376656862302</v>
+        <v>0.03790913338430494</v>
       </c>
       <c r="C9">
-        <v>-0.04766752238023162</v>
+        <v>0.05092998268902486</v>
       </c>
       <c r="D9">
-        <v>-0.009320766270133583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03365736184044587</v>
+      </c>
+      <c r="E9">
+        <v>-0.07345816871759547</v>
+      </c>
+      <c r="F9">
+        <v>0.05781170286728354</v>
+      </c>
+      <c r="G9">
+        <v>0.08770303529367653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.07604670007157885</v>
+        <v>0.1014600318335474</v>
       </c>
       <c r="C10">
-        <v>0.1868594575031611</v>
+        <v>-0.1962235661697759</v>
       </c>
       <c r="D10">
-        <v>0.008593883920150388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01544711585686531</v>
+      </c>
+      <c r="E10">
+        <v>-0.03970240225112437</v>
+      </c>
+      <c r="F10">
+        <v>0.01909948853877346</v>
+      </c>
+      <c r="G10">
+        <v>0.0313097863522674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04201901309630564</v>
+        <v>0.03724311220026219</v>
       </c>
       <c r="C11">
-        <v>-0.05083281520787263</v>
+        <v>0.04747075654329251</v>
       </c>
       <c r="D11">
-        <v>-0.01058094350705093</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02945429128948686</v>
+      </c>
+      <c r="E11">
+        <v>-0.02643528853626068</v>
+      </c>
+      <c r="F11">
+        <v>0.04473234988870077</v>
+      </c>
+      <c r="G11">
+        <v>0.06946947355918662</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04397588359379867</v>
+        <v>0.03907767642608982</v>
       </c>
       <c r="C12">
-        <v>-0.04716342488769393</v>
+        <v>0.04542717960170443</v>
       </c>
       <c r="D12">
-        <v>-0.0004312641266014056</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02378843623964902</v>
+      </c>
+      <c r="E12">
+        <v>-0.03403658674812712</v>
+      </c>
+      <c r="F12">
+        <v>0.04687991857046769</v>
+      </c>
+      <c r="G12">
+        <v>0.06647134779280496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01365030990270411</v>
+        <v>0.01144563757733662</v>
       </c>
       <c r="C13">
-        <v>-0.05347582316156961</v>
+        <v>0.04169711058311249</v>
       </c>
       <c r="D13">
-        <v>-0.00539176239001924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03935301573816092</v>
+      </c>
+      <c r="E13">
+        <v>-0.09863950431789276</v>
+      </c>
+      <c r="F13">
+        <v>0.06400608267000145</v>
+      </c>
+      <c r="G13">
+        <v>0.09779493484404343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00818769195029115</v>
+        <v>0.004765541968903836</v>
       </c>
       <c r="C14">
-        <v>-0.04235880669059348</v>
+        <v>0.03336688004372481</v>
       </c>
       <c r="D14">
-        <v>0.01271018195735287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02070734753761802</v>
+      </c>
+      <c r="E14">
+        <v>-0.05138332860204525</v>
+      </c>
+      <c r="F14">
+        <v>0.08011115376422974</v>
+      </c>
+      <c r="G14">
+        <v>0.07927672529226408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001706766718466407</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005412908272776159</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.00718974097225185</v>
+      </c>
+      <c r="E15">
+        <v>-0.004839150949611965</v>
+      </c>
+      <c r="F15">
+        <v>0.005965114938632768</v>
+      </c>
+      <c r="G15">
+        <v>0.006834723196490348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03875065986893103</v>
+        <v>0.03466882023334861</v>
       </c>
       <c r="C16">
-        <v>-0.04962387104503425</v>
+        <v>0.04488749328970579</v>
       </c>
       <c r="D16">
-        <v>-0.003412358224813413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02277515272134207</v>
+      </c>
+      <c r="E16">
+        <v>-0.04079191515835441</v>
+      </c>
+      <c r="F16">
+        <v>0.05379038994082864</v>
+      </c>
+      <c r="G16">
+        <v>0.05676332376333147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02341867633593526</v>
+        <v>0.01741728098512664</v>
       </c>
       <c r="C19">
-        <v>-0.06120189140839308</v>
+        <v>0.04435233370723277</v>
       </c>
       <c r="D19">
-        <v>-0.08643916835883132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08648356818094685</v>
+      </c>
+      <c r="E19">
+        <v>-0.1165200657386356</v>
+      </c>
+      <c r="F19">
+        <v>0.06675990695719476</v>
+      </c>
+      <c r="G19">
+        <v>0.04686284709013439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01686608509013242</v>
+        <v>0.0135859956129199</v>
       </c>
       <c r="C20">
-        <v>-0.04794465135919738</v>
+        <v>0.03893755048465489</v>
       </c>
       <c r="D20">
-        <v>-0.005625724876291829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.02839963181968178</v>
+      </c>
+      <c r="E20">
+        <v>-0.07799291815736088</v>
+      </c>
+      <c r="F20">
+        <v>0.05386761006219198</v>
+      </c>
+      <c r="G20">
+        <v>0.06835727165599093</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0111609410465776</v>
+        <v>0.009869017200407476</v>
       </c>
       <c r="C21">
-        <v>-0.05112413604748675</v>
+        <v>0.04110685265250639</v>
       </c>
       <c r="D21">
-        <v>-0.03123572970018839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05205931655800401</v>
+      </c>
+      <c r="E21">
+        <v>-0.1207493263907016</v>
+      </c>
+      <c r="F21">
+        <v>0.08926710101746588</v>
+      </c>
+      <c r="G21">
+        <v>0.1047848415367875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001836524419761525</v>
+        <v>0.002621946513679414</v>
       </c>
       <c r="C22">
-        <v>-0.001251720703862003</v>
+        <v>0.02670074265840105</v>
       </c>
       <c r="D22">
-        <v>-0.004297760205696323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04133815632694551</v>
+      </c>
+      <c r="E22">
+        <v>-0.04295774114328218</v>
+      </c>
+      <c r="F22">
+        <v>-0.009861714477780434</v>
+      </c>
+      <c r="G22">
+        <v>0.05681775858601119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001842234375113912</v>
+        <v>0.002706136121564347</v>
       </c>
       <c r="C23">
-        <v>-0.001252234199924645</v>
+        <v>0.02684232063117586</v>
       </c>
       <c r="D23">
-        <v>-0.004302075913264897</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04089011400067191</v>
+      </c>
+      <c r="E23">
+        <v>-0.04320098898899435</v>
+      </c>
+      <c r="F23">
+        <v>-0.01015586919395224</v>
+      </c>
+      <c r="G23">
+        <v>0.05681285521148172</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03571719881239695</v>
+        <v>0.03490003910261438</v>
       </c>
       <c r="C24">
-        <v>-0.05022288070440986</v>
+        <v>0.0521241040008505</v>
       </c>
       <c r="D24">
-        <v>-0.005930407843794441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02238394037947486</v>
+      </c>
+      <c r="E24">
+        <v>-0.0419545320275853</v>
+      </c>
+      <c r="F24">
+        <v>0.05530374141577659</v>
+      </c>
+      <c r="G24">
+        <v>0.0693065047146009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04888129928702645</v>
+        <v>0.04410631445177129</v>
       </c>
       <c r="C25">
-        <v>-0.06069836320485644</v>
+        <v>0.05593837872057675</v>
       </c>
       <c r="D25">
-        <v>0.006131441929258649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02103070638408207</v>
+      </c>
+      <c r="E25">
+        <v>-0.0313610497180607</v>
+      </c>
+      <c r="F25">
+        <v>0.04688089542759982</v>
+      </c>
+      <c r="G25">
+        <v>0.08082213473223913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01673142668495594</v>
+        <v>0.01511202849192864</v>
       </c>
       <c r="C26">
-        <v>-0.01731643862845542</v>
+        <v>0.01706959702411948</v>
       </c>
       <c r="D26">
-        <v>0.001905829568068639</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02176729070515506</v>
+      </c>
+      <c r="E26">
+        <v>-0.05217210716957189</v>
+      </c>
+      <c r="F26">
+        <v>0.06058449974946986</v>
+      </c>
+      <c r="G26">
+        <v>0.04901227876314942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09192993228033365</v>
+        <v>0.1374760875350844</v>
       </c>
       <c r="C28">
-        <v>0.2458505754945928</v>
+        <v>-0.2527433339684104</v>
       </c>
       <c r="D28">
-        <v>0.008712097652309677</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.03113852082500407</v>
+      </c>
+      <c r="E28">
+        <v>-0.05532969372890546</v>
+      </c>
+      <c r="F28">
+        <v>0.02382029572392733</v>
+      </c>
+      <c r="G28">
+        <v>0.04733520019109374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00723019577948521</v>
+        <v>0.005453237691552733</v>
       </c>
       <c r="C29">
-        <v>-0.0340756608652498</v>
+        <v>0.02974857785076858</v>
       </c>
       <c r="D29">
-        <v>0.01822896852803479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01373997445096907</v>
+      </c>
+      <c r="E29">
+        <v>-0.04871801980462924</v>
+      </c>
+      <c r="F29">
+        <v>0.06798794613177454</v>
+      </c>
+      <c r="G29">
+        <v>0.08362096465593229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04439330061126451</v>
+        <v>0.0409921215155872</v>
       </c>
       <c r="C30">
-        <v>-0.05395673080085756</v>
+        <v>0.05646768034967052</v>
       </c>
       <c r="D30">
-        <v>-0.06672369517010257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09448665781372075</v>
+      </c>
+      <c r="E30">
+        <v>-0.08172031059492428</v>
+      </c>
+      <c r="F30">
+        <v>0.07737421305087128</v>
+      </c>
+      <c r="G30">
+        <v>0.06897139867516021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05836582463866248</v>
+        <v>0.05714723009032274</v>
       </c>
       <c r="C31">
-        <v>-0.04528173847024995</v>
+        <v>0.06128674617513669</v>
       </c>
       <c r="D31">
-        <v>0.04154630342556125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01974926414608912</v>
+      </c>
+      <c r="E31">
+        <v>-0.06489977176066156</v>
+      </c>
+      <c r="F31">
+        <v>0.02852571633927125</v>
+      </c>
+      <c r="G31">
+        <v>0.08713196406164636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.001177412604503547</v>
+        <v>0.004613324413614628</v>
       </c>
       <c r="C32">
-        <v>-0.04622568533918277</v>
+        <v>0.03607683551620447</v>
       </c>
       <c r="D32">
-        <v>-0.04896092758356561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05283309508599018</v>
+      </c>
+      <c r="E32">
+        <v>-0.05896367103649876</v>
+      </c>
+      <c r="F32">
+        <v>0.06999457780222848</v>
+      </c>
+      <c r="G32">
+        <v>0.06322695442274952</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03115256402157486</v>
+        <v>0.02646028685400482</v>
       </c>
       <c r="C33">
-        <v>-0.059787858482522</v>
+        <v>0.05300041720046346</v>
       </c>
       <c r="D33">
-        <v>-0.03296280357295005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06474258570010488</v>
+      </c>
+      <c r="E33">
+        <v>-0.09244190823061253</v>
+      </c>
+      <c r="F33">
+        <v>0.07587290143669104</v>
+      </c>
+      <c r="G33">
+        <v>0.09934532340329015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04640932341047432</v>
+        <v>0.04159581052879593</v>
       </c>
       <c r="C34">
-        <v>-0.0651278947823159</v>
+        <v>0.0632008551974263</v>
       </c>
       <c r="D34">
-        <v>-0.01425271821667355</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03692630058488811</v>
+      </c>
+      <c r="E34">
+        <v>-0.01489868128903122</v>
+      </c>
+      <c r="F34">
+        <v>0.05754833156253757</v>
+      </c>
+      <c r="G34">
+        <v>0.07092432768787611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01655813799974175</v>
+        <v>0.0144057638488859</v>
       </c>
       <c r="C36">
-        <v>-0.01700026234477503</v>
+        <v>0.01325291750128907</v>
       </c>
       <c r="D36">
-        <v>0.006612528442708186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01989676016197963</v>
+      </c>
+      <c r="E36">
+        <v>-0.05922973242107316</v>
+      </c>
+      <c r="F36">
+        <v>0.05222299897731476</v>
+      </c>
+      <c r="G36">
+        <v>0.06791912472899193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02928835477397517</v>
+        <v>0.02319254349163645</v>
       </c>
       <c r="C38">
-        <v>-0.03094418437737578</v>
+        <v>0.02355098658801759</v>
       </c>
       <c r="D38">
-        <v>0.017967372487425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01794551393062604</v>
+      </c>
+      <c r="E38">
+        <v>-0.05085532809192914</v>
+      </c>
+      <c r="F38">
+        <v>0.04579056113845532</v>
+      </c>
+      <c r="G38">
+        <v>0.04927994810039844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04672218251033627</v>
+        <v>0.04067510609464704</v>
       </c>
       <c r="C39">
-        <v>-0.06331266714046961</v>
+        <v>0.06282014415561279</v>
       </c>
       <c r="D39">
-        <v>-0.01440038902816001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04706061831554059</v>
+      </c>
+      <c r="E39">
+        <v>-0.04879552357084253</v>
+      </c>
+      <c r="F39">
+        <v>0.0775850028134973</v>
+      </c>
+      <c r="G39">
+        <v>0.06469104520336157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01141362666828419</v>
+        <v>0.01369206603251839</v>
       </c>
       <c r="C40">
-        <v>-0.0498351142459857</v>
+        <v>0.03718453390395684</v>
       </c>
       <c r="D40">
-        <v>-0.01787643768316187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02505935230463674</v>
+      </c>
+      <c r="E40">
+        <v>-0.08500747496763834</v>
+      </c>
+      <c r="F40">
+        <v>0.03940551698809535</v>
+      </c>
+      <c r="G40">
+        <v>0.1080432855973385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02219551231272076</v>
+        <v>0.01899429509479704</v>
       </c>
       <c r="C41">
-        <v>-0.01443794263175717</v>
+        <v>0.01055354603219031</v>
       </c>
       <c r="D41">
-        <v>0.001979516819348329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01273979128685527</v>
+      </c>
+      <c r="E41">
+        <v>-0.05960938979513316</v>
+      </c>
+      <c r="F41">
+        <v>0.04713712358796862</v>
+      </c>
+      <c r="G41">
+        <v>0.05527254462158428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04105589551783523</v>
+        <v>0.02982482638940636</v>
       </c>
       <c r="C43">
-        <v>-0.0325745563545282</v>
+        <v>0.02410229801903844</v>
       </c>
       <c r="D43">
-        <v>-0.02496006713686826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04126610351062786</v>
+      </c>
+      <c r="E43">
+        <v>-0.07649301690591424</v>
+      </c>
+      <c r="F43">
+        <v>0.04231299309613972</v>
+      </c>
+      <c r="G43">
+        <v>0.08423294742312748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01343738434471473</v>
+        <v>0.01484745821921104</v>
       </c>
       <c r="C44">
-        <v>-0.06702454743169226</v>
+        <v>0.0477598345821541</v>
       </c>
       <c r="D44">
-        <v>-0.006478349463610522</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.02968382564941874</v>
+      </c>
+      <c r="E44">
+        <v>-0.08882882131713672</v>
+      </c>
+      <c r="F44">
+        <v>0.06111933346313649</v>
+      </c>
+      <c r="G44">
+        <v>0.05027520782943744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.008766167433729176</v>
+        <v>0.009129507779565754</v>
       </c>
       <c r="C46">
-        <v>-0.02986717715564154</v>
+        <v>0.02992699232725672</v>
       </c>
       <c r="D46">
-        <v>0.02001783705630321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.007756100688725319</v>
+      </c>
+      <c r="E46">
+        <v>-0.05765744475765489</v>
+      </c>
+      <c r="F46">
+        <v>0.08018158669649204</v>
+      </c>
+      <c r="G46">
+        <v>0.08366462928239769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08582193468416151</v>
+        <v>0.0892311271500561</v>
       </c>
       <c r="C47">
-        <v>-0.07174843295861823</v>
+        <v>0.08159570164307874</v>
       </c>
       <c r="D47">
-        <v>0.03986790881368149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02743724968845489</v>
+      </c>
+      <c r="E47">
+        <v>-0.06662063170934369</v>
+      </c>
+      <c r="F47">
+        <v>0.02463793289913048</v>
+      </c>
+      <c r="G47">
+        <v>0.07614810839398432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01924809298774367</v>
+        <v>0.01726951301795698</v>
       </c>
       <c r="C48">
-        <v>-0.01413614028606237</v>
+        <v>0.01535516250385454</v>
       </c>
       <c r="D48">
-        <v>0.02211277748253708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.007173787561158566</v>
+      </c>
+      <c r="E48">
+        <v>-0.06911288807204664</v>
+      </c>
+      <c r="F48">
+        <v>0.06640667378091226</v>
+      </c>
+      <c r="G48">
+        <v>0.07679520738183361</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08188461866102728</v>
+        <v>0.07096892128053288</v>
       </c>
       <c r="C50">
-        <v>-0.08307652207822544</v>
+        <v>0.07568227395710911</v>
       </c>
       <c r="D50">
-        <v>0.04018354488529635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01079380625734159</v>
+      </c>
+      <c r="E50">
+        <v>-0.07378880381967717</v>
+      </c>
+      <c r="F50">
+        <v>0.001847616291463063</v>
+      </c>
+      <c r="G50">
+        <v>0.09973096519001684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01625559440573765</v>
+        <v>0.01016879918919077</v>
       </c>
       <c r="C51">
-        <v>-0.04940095978069281</v>
+        <v>0.03187392241942674</v>
       </c>
       <c r="D51">
-        <v>-0.03409239690919463</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05150072650698061</v>
+      </c>
+      <c r="E51">
+        <v>-0.05212983779297529</v>
+      </c>
+      <c r="F51">
+        <v>0.07120789114503988</v>
+      </c>
+      <c r="G51">
+        <v>0.06174705866468891</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08399692517560452</v>
+        <v>0.09627962989815914</v>
       </c>
       <c r="C53">
-        <v>-0.07625693514675443</v>
+        <v>0.0857554322559668</v>
       </c>
       <c r="D53">
-        <v>0.06120687940196111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.06184562175900746</v>
+      </c>
+      <c r="E53">
+        <v>-0.05881729207222432</v>
+      </c>
+      <c r="F53">
+        <v>0.0234070081362006</v>
+      </c>
+      <c r="G53">
+        <v>0.07511840364198107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03407323124470924</v>
+        <v>0.02795244013851383</v>
       </c>
       <c r="C54">
-        <v>-0.03924568957385718</v>
+        <v>0.03332660994899629</v>
       </c>
       <c r="D54">
-        <v>0.00643735653099792</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02049980751506579</v>
+      </c>
+      <c r="E54">
+        <v>-0.05763162216411125</v>
+      </c>
+      <c r="F54">
+        <v>0.07249450075968278</v>
+      </c>
+      <c r="G54">
+        <v>0.08174480519826952</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07750984241100133</v>
+        <v>0.08766961906920481</v>
       </c>
       <c r="C55">
-        <v>-0.05565786773512514</v>
+        <v>0.06848290156799106</v>
       </c>
       <c r="D55">
-        <v>0.06625911613784187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.06333741854704267</v>
+      </c>
+      <c r="E55">
+        <v>-0.04063075493070049</v>
+      </c>
+      <c r="F55">
+        <v>0.008801168216275119</v>
+      </c>
+      <c r="G55">
+        <v>0.05392055895369269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1486089880142751</v>
+        <v>0.1507527728506693</v>
       </c>
       <c r="C56">
-        <v>-0.09001077698038587</v>
+        <v>0.1044530387636038</v>
       </c>
       <c r="D56">
-        <v>0.05749871588049239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05924538451333894</v>
+      </c>
+      <c r="E56">
+        <v>-0.03993317235956533</v>
+      </c>
+      <c r="F56">
+        <v>-0.01307872907213117</v>
+      </c>
+      <c r="G56">
+        <v>0.02559466845772965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03883383476141257</v>
+        <v>0.02401580693466291</v>
       </c>
       <c r="C58">
-        <v>-0.03763076997302299</v>
+        <v>0.02874827627526498</v>
       </c>
       <c r="D58">
-        <v>-0.6345422641054697</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3644300235620212</v>
+      </c>
+      <c r="E58">
+        <v>-0.6641888914002501</v>
+      </c>
+      <c r="F58">
+        <v>-0.426770569779205</v>
+      </c>
+      <c r="G58">
+        <v>-0.4145543033958778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1303798433570108</v>
+        <v>0.1442981147761275</v>
       </c>
       <c r="C59">
-        <v>0.1982346672586715</v>
+        <v>-0.1885870586102836</v>
       </c>
       <c r="D59">
-        <v>-0.02613049218022218</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02740432235030589</v>
+      </c>
+      <c r="E59">
+        <v>-0.02891328370446908</v>
+      </c>
+      <c r="F59">
+        <v>0.03080006508390091</v>
+      </c>
+      <c r="G59">
+        <v>-0.01337094070269101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3082590686145921</v>
+        <v>0.2782688976361051</v>
       </c>
       <c r="C60">
-        <v>-0.1083122806606888</v>
+        <v>0.1084594249507614</v>
       </c>
       <c r="D60">
-        <v>-0.1837100670504158</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2701544469935294</v>
+      </c>
+      <c r="E60">
+        <v>0.2335322709809508</v>
+      </c>
+      <c r="F60">
+        <v>-0.08002114826203653</v>
+      </c>
+      <c r="G60">
+        <v>0.02631919658662688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0441043778222963</v>
+        <v>0.04137235658862311</v>
       </c>
       <c r="C61">
-        <v>-0.06335760419864578</v>
+        <v>0.05965807012350703</v>
       </c>
       <c r="D61">
-        <v>-0.009381195645935496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0381697917898856</v>
+      </c>
+      <c r="E61">
+        <v>-0.05129102097614547</v>
+      </c>
+      <c r="F61">
+        <v>0.05675064355934526</v>
+      </c>
+      <c r="G61">
+        <v>0.07739589506153273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01687971693329489</v>
+        <v>0.01553107008703983</v>
       </c>
       <c r="C63">
-        <v>-0.03330496571342444</v>
+        <v>0.03077532711604785</v>
       </c>
       <c r="D63">
-        <v>0.02257364565709745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01269402280409194</v>
+      </c>
+      <c r="E63">
+        <v>-0.06087754745373232</v>
+      </c>
+      <c r="F63">
+        <v>0.03793685592512808</v>
+      </c>
+      <c r="G63">
+        <v>0.07765806682925978</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05071455508597968</v>
+        <v>0.05596162421477948</v>
       </c>
       <c r="C64">
-        <v>-0.0464167431735162</v>
+        <v>0.05677040879123486</v>
       </c>
       <c r="D64">
-        <v>0.003900826729503318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.001056124067734106</v>
+      </c>
+      <c r="E64">
+        <v>-0.03693181318813926</v>
+      </c>
+      <c r="F64">
+        <v>0.06246985792125948</v>
+      </c>
+      <c r="G64">
+        <v>0.06583506089482673</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08050747578562896</v>
+        <v>0.06551282319957881</v>
       </c>
       <c r="C65">
-        <v>-0.0317893254001212</v>
+        <v>0.02930972225803423</v>
       </c>
       <c r="D65">
-        <v>-0.05637917119511972</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08394106170076136</v>
+      </c>
+      <c r="E65">
+        <v>-0.05865220061128335</v>
+      </c>
+      <c r="F65">
+        <v>0.008282857865379956</v>
+      </c>
+      <c r="G65">
+        <v>0.02583199143204178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06204934031449887</v>
+        <v>0.05268580225083584</v>
       </c>
       <c r="C66">
-        <v>-0.08651802749712001</v>
+        <v>0.08007704215618547</v>
       </c>
       <c r="D66">
-        <v>-0.03427954902420915</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07107574414085339</v>
+      </c>
+      <c r="E66">
+        <v>-0.05844058164892954</v>
+      </c>
+      <c r="F66">
+        <v>0.07004849739287825</v>
+      </c>
+      <c r="G66">
+        <v>0.08064455468767782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0513110511374115</v>
+        <v>0.04479676825067704</v>
       </c>
       <c r="C67">
-        <v>-0.03137193476758261</v>
+        <v>0.02849930878682566</v>
       </c>
       <c r="D67">
-        <v>0.02508585042460959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00293848399043343</v>
+      </c>
+      <c r="E67">
+        <v>-0.0268555001673878</v>
+      </c>
+      <c r="F67">
+        <v>0.03302106440815083</v>
+      </c>
+      <c r="G67">
+        <v>0.03959354062486146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1284575647002677</v>
+        <v>0.1512105077721763</v>
       </c>
       <c r="C68">
-        <v>0.2798833963300218</v>
+        <v>-0.2439572150781658</v>
       </c>
       <c r="D68">
-        <v>0.006088509334176271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01653984318318071</v>
+      </c>
+      <c r="E68">
+        <v>-0.03766100548663841</v>
+      </c>
+      <c r="F68">
+        <v>0.001383060850690829</v>
+      </c>
+      <c r="G68">
+        <v>0.03118916692611319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09142796839563165</v>
+        <v>0.08674243843182555</v>
       </c>
       <c r="C69">
-        <v>-0.07264061190844508</v>
+        <v>0.09012074961364491</v>
       </c>
       <c r="D69">
-        <v>0.05331828098752316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01890953626598147</v>
+      </c>
+      <c r="E69">
+        <v>-0.05229761108275326</v>
+      </c>
+      <c r="F69">
+        <v>0.05747685235987248</v>
+      </c>
+      <c r="G69">
+        <v>0.08023953599856654</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1172319869278216</v>
+        <v>0.1441309707325333</v>
       </c>
       <c r="C71">
-        <v>0.2541243046949431</v>
+        <v>-0.2406914483721703</v>
       </c>
       <c r="D71">
-        <v>-0.01263047439310026</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.004089662382153785</v>
+      </c>
+      <c r="E71">
+        <v>-0.05963371035238923</v>
+      </c>
+      <c r="F71">
+        <v>0.0107177909361648</v>
+      </c>
+      <c r="G71">
+        <v>0.0566498787007159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09359675214244885</v>
+        <v>0.1003770077673805</v>
       </c>
       <c r="C72">
-        <v>-0.05432900613490337</v>
+        <v>0.05810523770777907</v>
       </c>
       <c r="D72">
-        <v>-0.0006568403341864571</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02589966282840846</v>
+      </c>
+      <c r="E72">
+        <v>-0.02703782831860399</v>
+      </c>
+      <c r="F72">
+        <v>0.03270491501066977</v>
+      </c>
+      <c r="G72">
+        <v>0.07637164890475233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4033745392270138</v>
+        <v>0.3414737632258248</v>
       </c>
       <c r="C73">
-        <v>-0.04184935832076895</v>
+        <v>0.06936566036721212</v>
       </c>
       <c r="D73">
-        <v>-0.4345164378832042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5349996246143196</v>
+      </c>
+      <c r="E73">
+        <v>0.427679874607886</v>
+      </c>
+      <c r="F73">
+        <v>-0.2218772797048586</v>
+      </c>
+      <c r="G73">
+        <v>0.005345383089545725</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1043175499348947</v>
+        <v>0.1093475153552037</v>
       </c>
       <c r="C74">
-        <v>-0.09563449371491733</v>
+        <v>0.09488154960207935</v>
       </c>
       <c r="D74">
-        <v>0.0410397634370371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04939868980063458</v>
+      </c>
+      <c r="E74">
+        <v>-0.05985411274471159</v>
+      </c>
+      <c r="F74">
+        <v>-0.01755559237764866</v>
+      </c>
+      <c r="G74">
+        <v>0.05537996697260158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.254277368708163</v>
+        <v>0.2577257369835425</v>
       </c>
       <c r="C75">
-        <v>-0.1028873596309605</v>
+        <v>0.1310325668256708</v>
       </c>
       <c r="D75">
-        <v>0.1388484655046095</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1587371976066843</v>
+      </c>
+      <c r="E75">
+        <v>-0.03658811715193976</v>
+      </c>
+      <c r="F75">
+        <v>-0.05487169987522077</v>
+      </c>
+      <c r="G75">
+        <v>-0.04010794960166018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1146022929380856</v>
+        <v>0.1285553688487042</v>
       </c>
       <c r="C76">
-        <v>-0.08083785532067272</v>
+        <v>0.09286776477889863</v>
       </c>
       <c r="D76">
-        <v>0.07248149911588954</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.08281113022739138</v>
+      </c>
+      <c r="E76">
+        <v>-0.06387296479067299</v>
+      </c>
+      <c r="F76">
+        <v>0.005038261086380241</v>
+      </c>
+      <c r="G76">
+        <v>0.03804688261940893</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0774571678207184</v>
+        <v>0.06358506114706879</v>
       </c>
       <c r="C77">
-        <v>-0.05285333167188457</v>
+        <v>0.06258508257303885</v>
       </c>
       <c r="D77">
-        <v>-0.04651071527871658</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04569633086451851</v>
+      </c>
+      <c r="E77">
+        <v>-0.1016920429210809</v>
+      </c>
+      <c r="F77">
+        <v>0.1735397544389055</v>
+      </c>
+      <c r="G77">
+        <v>-0.09103530202441859</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04838789663029972</v>
+        <v>0.04564416634432103</v>
       </c>
       <c r="C78">
-        <v>-0.04650924159221023</v>
+        <v>0.05603012083924772</v>
       </c>
       <c r="D78">
-        <v>-0.0191803678393907</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05484450154888799</v>
+      </c>
+      <c r="E78">
+        <v>-0.05753733364966213</v>
+      </c>
+      <c r="F78">
+        <v>0.06125544827174513</v>
+      </c>
+      <c r="G78">
+        <v>0.06516214353123945</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.03019004335054691</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04548471918923126</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.07935596922014139</v>
+      </c>
+      <c r="E79">
+        <v>-0.05639918288454356</v>
+      </c>
+      <c r="F79">
+        <v>-0.02505783914572029</v>
+      </c>
+      <c r="G79">
+        <v>0.04165693518131375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03880700267308009</v>
+        <v>0.02996418081284924</v>
       </c>
       <c r="C80">
-        <v>-0.04855886431104359</v>
+        <v>0.0498733928573594</v>
       </c>
       <c r="D80">
-        <v>-0.02928487581082023</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03954370256215357</v>
+      </c>
+      <c r="E80">
+        <v>-0.01993621941792032</v>
+      </c>
+      <c r="F80">
+        <v>0.05321811023172709</v>
+      </c>
+      <c r="G80">
+        <v>-0.00127960947498022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1388870359616565</v>
+        <v>0.1394241851729885</v>
       </c>
       <c r="C81">
-        <v>-0.07604269869951473</v>
+        <v>0.09368156543322607</v>
       </c>
       <c r="D81">
-        <v>0.1025497850788838</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1270340669988652</v>
+      </c>
+      <c r="E81">
+        <v>-0.06356244369889333</v>
+      </c>
+      <c r="F81">
+        <v>-0.03543244362141677</v>
+      </c>
+      <c r="G81">
+        <v>-0.007718120064875477</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1790286785038105</v>
+        <v>0.2155033113798494</v>
       </c>
       <c r="C82">
-        <v>-0.08980768939051713</v>
+        <v>0.1543960461188321</v>
       </c>
       <c r="D82">
-        <v>0.1854110812091381</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2498025680696913</v>
+      </c>
+      <c r="E82">
+        <v>0.02925673663227102</v>
+      </c>
+      <c r="F82">
+        <v>0.03883594741020131</v>
+      </c>
+      <c r="G82">
+        <v>0.0408270075880273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03916643433328821</v>
+        <v>0.02713029352468297</v>
       </c>
       <c r="C83">
-        <v>-0.03125116038915315</v>
+        <v>0.04350578960011416</v>
       </c>
       <c r="D83">
-        <v>-0.03848512322836164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02887448366299728</v>
+      </c>
+      <c r="E83">
+        <v>-0.02881931051403965</v>
+      </c>
+      <c r="F83">
+        <v>0.04663908008427796</v>
+      </c>
+      <c r="G83">
+        <v>0.01031756277112442</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0004512528405393899</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000206756743933682</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002089873789248062</v>
+      </c>
+      <c r="E84">
+        <v>-0.002382466795515234</v>
+      </c>
+      <c r="F84">
+        <v>-0.0009971506326644669</v>
+      </c>
+      <c r="G84">
+        <v>0.002372634055742447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2224404776951517</v>
+        <v>0.2049521387274158</v>
       </c>
       <c r="C85">
-        <v>-0.09709165159077288</v>
+        <v>0.1134401153359901</v>
       </c>
       <c r="D85">
-        <v>0.1663967484205156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1240205556286515</v>
+      </c>
+      <c r="E85">
+        <v>0.03198729290662514</v>
+      </c>
+      <c r="F85">
+        <v>-0.1035293515580961</v>
+      </c>
+      <c r="G85">
+        <v>0.003155270584756255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.00745241851867431</v>
+        <v>0.01068626241806743</v>
       </c>
       <c r="C86">
-        <v>-0.02641090990747517</v>
+        <v>0.01860038502920087</v>
       </c>
       <c r="D86">
-        <v>-0.03871199114384539</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05170894108257063</v>
+      </c>
+      <c r="E86">
+        <v>-0.08005768422417395</v>
+      </c>
+      <c r="F86">
+        <v>0.09401573877516967</v>
+      </c>
+      <c r="G86">
+        <v>0.07724330669759379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02374629457195063</v>
+        <v>0.02463340466439658</v>
       </c>
       <c r="C87">
-        <v>-0.006168689964134833</v>
+        <v>0.01325157995348955</v>
       </c>
       <c r="D87">
-        <v>-0.07654677809097019</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07345322459065697</v>
+      </c>
+      <c r="E87">
+        <v>-0.1286191016135413</v>
+      </c>
+      <c r="F87">
+        <v>0.07801840638223137</v>
+      </c>
+      <c r="G87">
+        <v>0.01840167683626585</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1084198449424015</v>
+        <v>0.09349964508890055</v>
       </c>
       <c r="C88">
-        <v>-0.07200124098010648</v>
+        <v>0.06161490947756811</v>
       </c>
       <c r="D88">
-        <v>0.02645205689915792</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.005786758344166172</v>
+      </c>
+      <c r="E88">
+        <v>-0.05299810063183823</v>
+      </c>
+      <c r="F88">
+        <v>0.06531874325011036</v>
+      </c>
+      <c r="G88">
+        <v>0.04351866215502269</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1843881726519541</v>
+        <v>0.2202492956135841</v>
       </c>
       <c r="C89">
-        <v>0.3776033317113933</v>
+        <v>-0.3810985455717066</v>
       </c>
       <c r="D89">
-        <v>0.0268580591725803</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0247558047819622</v>
+      </c>
+      <c r="E89">
+        <v>-0.07060670405410466</v>
+      </c>
+      <c r="F89">
+        <v>0.0974155862497334</v>
+      </c>
+      <c r="G89">
+        <v>-0.003434867973141665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1768715580978205</v>
+        <v>0.2002007168068917</v>
       </c>
       <c r="C90">
-        <v>0.3343636754037211</v>
+        <v>-0.3102011143356487</v>
       </c>
       <c r="D90">
-        <v>0.03650703604709919</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02728828003822997</v>
+      </c>
+      <c r="E90">
+        <v>-0.06618378611419672</v>
+      </c>
+      <c r="F90">
+        <v>0.03050994554031911</v>
+      </c>
+      <c r="G90">
+        <v>0.01178900815764368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1901096795996871</v>
+        <v>0.1870126331489751</v>
       </c>
       <c r="C91">
-        <v>-0.1277185281230003</v>
+        <v>0.1432151092545269</v>
       </c>
       <c r="D91">
-        <v>0.124758532897593</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1304212968369538</v>
+      </c>
+      <c r="E91">
+        <v>-0.04229692693897708</v>
+      </c>
+      <c r="F91">
+        <v>-0.01785859543876171</v>
+      </c>
+      <c r="G91">
+        <v>0.0007248248134196968</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1613153468867706</v>
+        <v>0.1810014921277501</v>
       </c>
       <c r="C92">
-        <v>0.2853101668398655</v>
+        <v>-0.2903120267735363</v>
       </c>
       <c r="D92">
-        <v>0.03329040642871485</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02881468039617105</v>
+      </c>
+      <c r="E92">
+        <v>-0.06804206885187003</v>
+      </c>
+      <c r="F92">
+        <v>0.07020054664529271</v>
+      </c>
+      <c r="G92">
+        <v>0.03404167914680147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1981428409357333</v>
+        <v>0.2218932892897149</v>
       </c>
       <c r="C93">
-        <v>0.3388720244538322</v>
+        <v>-0.3196554423267715</v>
       </c>
       <c r="D93">
-        <v>0.03577943581938627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.021062969583826</v>
+      </c>
+      <c r="E93">
+        <v>-0.04180525403409791</v>
+      </c>
+      <c r="F93">
+        <v>0.004095629460379036</v>
+      </c>
+      <c r="G93">
+        <v>0.04131177546638823</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3357789707464879</v>
+        <v>0.3374254130529102</v>
       </c>
       <c r="C94">
-        <v>-0.1505278026466502</v>
+        <v>0.1871853602139572</v>
       </c>
       <c r="D94">
-        <v>0.3515342100659363</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4035924606800237</v>
+      </c>
+      <c r="E94">
+        <v>0.006491749915475324</v>
+      </c>
+      <c r="F94">
+        <v>-0.1486734647269518</v>
+      </c>
+      <c r="G94">
+        <v>-0.399921594876645</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1166868875126857</v>
+        <v>0.08613244601234361</v>
       </c>
       <c r="C95">
-        <v>-0.06446979578377106</v>
+        <v>0.06177447042271577</v>
       </c>
       <c r="D95">
-        <v>-0.1895333080352326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1933534350399862</v>
+      </c>
+      <c r="E95">
+        <v>0.07599523776308778</v>
+      </c>
+      <c r="F95">
+        <v>0.697403322264264</v>
+      </c>
+      <c r="G95">
+        <v>-0.5930168407686781</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1947874810214831</v>
+        <v>0.1874102942679915</v>
       </c>
       <c r="C98">
-        <v>-0.01900645776633811</v>
+        <v>0.04634779717778365</v>
       </c>
       <c r="D98">
-        <v>-0.1464337068922432</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.2023909555661329</v>
+      </c>
+      <c r="E98">
+        <v>0.1300514058405042</v>
+      </c>
+      <c r="F98">
+        <v>-0.07685768072264297</v>
+      </c>
+      <c r="G98">
+        <v>0.07315735290541896</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007012353200580891</v>
+        <v>0.005448037155115091</v>
       </c>
       <c r="C101">
-        <v>-0.03410442768577114</v>
+        <v>0.02932124133527569</v>
       </c>
       <c r="D101">
-        <v>0.01795998038788221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01360542643871625</v>
+      </c>
+      <c r="E101">
+        <v>-0.04940414636402441</v>
+      </c>
+      <c r="F101">
+        <v>0.06863878180188315</v>
+      </c>
+      <c r="G101">
+        <v>0.08350119714617751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1247592368044839</v>
+        <v>0.1268484109259519</v>
       </c>
       <c r="C102">
-        <v>-0.06787509350010859</v>
+        <v>0.09998774206570803</v>
       </c>
       <c r="D102">
-        <v>0.04727676985022536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0570064544638591</v>
+      </c>
+      <c r="E102">
+        <v>0.01493517680908269</v>
+      </c>
+      <c r="F102">
+        <v>0.02014010912195509</v>
+      </c>
+      <c r="G102">
+        <v>-0.01148945869159441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
